--- a/ig/ch-epr-fhir/StructureDefinition-PpqmConsentTemplate201.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-PpqmConsentTemplate201.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0-ballot</t>
+    <t>4.0.1-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T20:14:33+00:00</t>
+    <t>2024-05-16T21:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-epr-fhir/StructureDefinition-PpqmConsentTemplate201.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-PpqmConsentTemplate201.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1-ballot</t>
+    <t>4.0.1-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T21:49:21+00:00</t>
+    <t>2024-11-19T17:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-epr-fhir/StructureDefinition-PpqmConsentTemplate201.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-PpqmConsentTemplate201.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6108" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6108" uniqueCount="643">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T13:39:01+00:00</t>
+    <t>2025-12-18T15:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -385,7 +385,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -641,7 +641,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -818,7 +818,7 @@
     <t>Consent.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -950,7 +950,7 @@
     <t>The four anticipated uses for the Consent Resource.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-scope</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-scope|4.0.1</t>
   </si>
   <si>
     <t>Consent.scope.id</t>
@@ -985,7 +985,7 @@
     <t>A classification of the type of consents found in a consent statement.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-category</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-category|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1015,7 +1015,7 @@
     <t>Consent.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|4.0.1)
 </t>
   </si>
   <si>
@@ -1078,7 +1078,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1137,7 +1137,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-epr-spid-length:EPR-SPID must be exactly 18 characters long {matches('^[0-9]{18}$')}epr-spid-startswith76133761:EPR-SPID must start with 76133761 {startsWith('76133761')}epr-spid-modulus-10:EPR-SPID must pass the modulus 10 check - https://www.gs1.org/services/how-calculate-check-digit-manually {(((10-((68+(substring(8,1).toInteger()*3)+(substring(9,1).toInteger()*1)+(substring(10,1).toInteger()*3)+(substring(11,1).toInteger()*1)+(substring(12,1).toInteger()*3)+(substring(13,1).toInteger()*1)+(substring(14,1).toInteger()*3)+(substring(15,1).toInteger()*1)+(substring(16,1).toInteger()*3))mod(10)))mod(10))=substring(17,1).toInteger())}</t>
+epr-spid-length:EPR-SPID must start with 76133761 followed by 10 digits {matches('^76133761[0-9]{10}$')}epr-spid-modulus-10:EPR-SPID must pass the modulus 10 check - https://www.gs1.org/services/how-calculate-check-digit-manually {(((10-((68+(substring(8,1).toInteger()*3)+(substring(9,1).toInteger()*1)+(substring(10,1).toInteger()*3)+(substring(11,1).toInteger()*1)+(substring(12,1).toInteger()*3)+(substring(13,1).toInteger()*1)+(substring(14,1).toInteger()*3)+(substring(15,1).toInteger()*1)+(substring(16,1).toInteger()*3))mod(10)))mod(10))=substring(17,1).toInteger())}</t>
   </si>
   <si>
     <t>/PolicySet/Target/Resources/Resource/ResourceMatch/AttributeValue/InstanceIdentifier/@extension</t>
@@ -1199,7 +1199,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Patient|Practitioner|RelatedPerson|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Patient|4.0.1|Practitioner|4.0.1|RelatedPerson|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
   </si>
   <si>
     <t>Attachment
-Reference(Consent|DocumentReference|Contract|QuestionnaireResponse)</t>
+Reference(Consent|4.0.1|DocumentReference|4.0.1|Contract|4.0.1|QuestionnaireResponse|4.0.1)</t>
   </si>
   <si>
     <t>Source from which this consent is taken</t>
@@ -1332,7 +1332,7 @@
     <t>Regulatory policy examples.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-policy</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-policy|4.0.1</t>
   </si>
   <si>
     <t>Consent.policyRule.id</t>
@@ -1504,7 +1504,7 @@
     <t>Consent.verification.verifiedWith</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1717,6 +1717,10 @@
     <t>Consent.provision.actor.reference</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Patient)
+</t>
+  </si>
+  <si>
     <t>Resource for the actor (or group, by role)</t>
   </si>
   <si>
@@ -1846,7 +1850,7 @@
     <t>Detailed codes for the consent action.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-action</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-action|4.0.1</t>
   </si>
   <si>
     <t>Consent.provision.securityLabel</t>
@@ -1864,7 +1868,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Consent.provision.purpose</t>
@@ -1927,7 +1931,7 @@
     <t>The class (type) of information a consent rule covers.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-content-class</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-content-class|4.0.1</t>
   </si>
   <si>
     <t>Consent.provision.code</t>
@@ -1945,7 +1949,7 @@
     <t>If this code is found in an instance, then the exception applies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-content-code</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-content-code|4.0.1</t>
   </si>
   <si>
     <t>Consent.provision.dataPeriod</t>
@@ -1999,7 +2003,7 @@
     <t>Consent.provision.data.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -2349,7 +2353,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="65.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.5546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -16219,13 +16223,13 @@
         <v>80</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>317</v>
+        <v>543</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16308,10 +16312,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16423,10 +16427,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16540,10 +16544,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16657,10 +16661,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16774,10 +16778,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16803,7 +16807,7 @@
         <v>340</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M124" t="s" s="2">
         <v>342</v>
@@ -16891,10 +16895,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17006,10 +17010,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17123,10 +17127,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17242,10 +17246,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17361,10 +17365,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17476,10 +17480,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17593,10 +17597,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17641,7 +17645,7 @@
         <v>80</v>
       </c>
       <c r="S131" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="T131" t="s" s="2">
         <v>80</v>
@@ -17660,7 +17664,7 @@
       </c>
       <c r="Y131" s="2"/>
       <c r="Z131" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>80</v>
@@ -17710,10 +17714,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17825,10 +17829,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17942,10 +17946,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18061,10 +18065,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18178,10 +18182,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18207,7 +18211,7 @@
         <v>113</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M136" t="s" s="2">
         <v>441</v>
@@ -18278,7 +18282,7 @@
         <v>105</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>80</v>
@@ -18295,10 +18299,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18412,10 +18416,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18531,10 +18535,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18650,10 +18654,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18769,10 +18773,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18798,7 +18802,7 @@
         <v>168</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M141" t="s" s="2">
         <v>239</v>
@@ -18869,7 +18873,7 @@
         <v>105</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>80</v>
@@ -18886,10 +18890,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19001,10 +19005,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19118,10 +19122,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19147,7 +19151,7 @@
         <v>168</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M144" t="s" s="2">
         <v>361</v>
@@ -19235,10 +19239,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19264,20 +19268,20 @@
         <v>192</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q145" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="R145" t="s" s="2">
         <v>80</v>
@@ -19298,13 +19302,13 @@
         <v>80</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>80</v>
@@ -19322,7 +19326,7 @@
         <v>80</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>81</v>
@@ -19354,10 +19358,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19383,13 +19387,13 @@
         <v>208</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -19418,10 +19422,10 @@
         <v>197</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AA146" t="s" s="2">
         <v>80</v>
@@ -19439,7 +19443,7 @@
         <v>80</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>81</v>
@@ -19471,10 +19475,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19500,13 +19504,13 @@
         <v>208</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -19536,7 +19540,7 @@
       </c>
       <c r="Y147" s="2"/>
       <c r="Z147" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>80</v>
@@ -19554,7 +19558,7 @@
         <v>80</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>81</v>
@@ -19586,10 +19590,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19701,10 +19705,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19818,10 +19822,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19866,7 +19870,7 @@
         <v>80</v>
       </c>
       <c r="S150" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="T150" t="s" s="2">
         <v>80</v>
@@ -19920,7 +19924,7 @@
         <v>105</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>80</v>
@@ -19937,10 +19941,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20054,10 +20058,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20154,7 +20158,7 @@
         <v>105</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>80</v>
@@ -20171,10 +20175,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20288,10 +20292,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20407,10 +20411,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20436,13 +20440,13 @@
         <v>208</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
@@ -20471,10 +20475,10 @@
         <v>197</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>80</v>
@@ -20492,7 +20496,7 @@
         <v>80</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>81</v>
@@ -20524,10 +20528,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20553,13 +20557,13 @@
         <v>192</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
@@ -20585,13 +20589,13 @@
         <v>80</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>80</v>
@@ -20609,7 +20613,7 @@
         <v>80</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>81</v>
@@ -20641,10 +20645,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20670,13 +20674,13 @@
         <v>248</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -20726,7 +20730,7 @@
         <v>80</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>81</v>
@@ -20758,10 +20762,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20787,10 +20791,10 @@
         <v>394</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
@@ -20798,7 +20802,7 @@
         <v>80</v>
       </c>
       <c r="Q158" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="R158" t="s" s="2">
         <v>80</v>
@@ -20843,7 +20847,7 @@
         <v>80</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>81</v>
@@ -20875,10 +20879,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -20990,10 +20994,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21107,10 +21111,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21226,10 +21230,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21255,10 +21259,10 @@
         <v>113</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -21288,10 +21292,10 @@
         <v>185</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>80</v>
@@ -21309,7 +21313,7 @@
         <v>80</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>93</v>
@@ -21341,10 +21345,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21367,13 +21371,13 @@
         <v>94</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -21424,7 +21428,7 @@
         <v>80</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>93</v>
@@ -21456,10 +21460,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21485,10 +21489,10 @@
         <v>80</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -21539,7 +21543,7 @@
         <v>80</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>81</v>
